--- a/test-data/Residuals_202506.xlsx
+++ b/test-data/Residuals_202506.xlsx
@@ -1,47 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Residuals" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Residual Payouts" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+  <si>
+    <t>Merchant ID</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Sales Amount</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>BPS</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Agent Net</t>
+  </si>
+  <si>
+    <t>Payout Date</t>
+  </si>
+  <si>
+    <t>TEST000001</t>
+  </si>
+  <si>
+    <t>Test Merchant 1</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>TEST000002</t>
+  </si>
+  <si>
+    <t>Test Merchant 2</t>
+  </si>
+  <si>
+    <t>TEST000003</t>
+  </si>
+  <si>
+    <t>Test Merchant 3</t>
+  </si>
+  <si>
+    <t>TEST000004</t>
+  </si>
+  <si>
+    <t>Test Merchant 4</t>
+  </si>
+  <si>
+    <t>TEST000005</t>
+  </si>
+  <si>
+    <t>Test Merchant 5</t>
+  </si>
+  <si>
+    <t>TEST000006</t>
+  </si>
+  <si>
+    <t>Test Merchant 6</t>
+  </si>
+  <si>
+    <t>TEST000007</t>
+  </si>
+  <si>
+    <t>Test Merchant 7</t>
+  </si>
+  <si>
+    <t>TEST000008</t>
+  </si>
+  <si>
+    <t>Test Merchant 8</t>
+  </si>
+  <si>
+    <t>TEST000009</t>
+  </si>
+  <si>
+    <t>Test Merchant 9</t>
+  </si>
+  <si>
+    <t>TEST000010</t>
+  </si>
+  <si>
+    <t>Test Merchant 10</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +146,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,225 +488,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Merchant ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Merchant</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Transactions</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Sales Amount</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Income</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Expenses</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Net</v>
-      </c>
-      <c r="H1" t="str">
-        <v>BPS</v>
-      </c>
-      <c r="I1" t="str">
-        <v>%</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Agent Net</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Payout Date</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>TEST000001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Test Merchant 1</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
+        <v>905</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10487.301875578753</v>
+      </c>
+      <c r="E2" s="1">
+        <v>262.1825468894688</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52.43650937789377</v>
+      </c>
+      <c r="G2" s="1">
+        <v>209.74603751157505</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1">
+        <v>104.87301875578753</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>851</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4566.58984824542</v>
+      </c>
+      <c r="E3" s="1">
+        <v>114.16474620613552</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22.832949241227105</v>
+      </c>
+      <c r="G3" s="1">
+        <v>91.33179696490842</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45.66589848245421</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1074</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10922.770694138731</v>
+      </c>
+      <c r="E4" s="1">
+        <v>273.0692673534683</v>
+      </c>
+      <c r="F4" s="1">
+        <v>54.61385347069367</v>
+      </c>
+      <c r="G4" s="1">
+        <v>218.45541388277465</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>109.22770694138732</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2269.8686979672602</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56.74671744918151</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11.349343489836302</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45.39737395934521</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <v>22.698686979672605</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>200</v>
       </c>
-      <c r="H2">
+      <c r="D6" s="1">
+        <v>4506.361697207261</v>
+      </c>
+      <c r="E6" s="1">
+        <v>112.65904243018154</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22.53180848603631</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90.12723394414523</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45.063616972072616</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>874</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9029.445792069975</v>
+      </c>
+      <c r="E7" s="1">
+        <v>225.7361448017494</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45.14722896034988</v>
+      </c>
+      <c r="G7" s="1">
+        <v>180.5889158413995</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
+        <v>90.29445792069976</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>889</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5161.806614760912</v>
+      </c>
+      <c r="E8" s="1">
+        <v>129.0451653690228</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25.809033073804564</v>
+      </c>
+      <c r="G8" s="1">
+        <v>103.23613229521825</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>51.61806614760913</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>387</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2258.856073128427</v>
+      </c>
+      <c r="E9" s="1">
+        <v>56.471401828210674</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11.294280365642136</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45.177121462568536</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1">
+        <v>22.588560731284268</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>971</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2709.9354647887853</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67.74838661971964</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13.549677323943929</v>
+      </c>
+      <c r="G10" s="1">
+        <v>54.198709295775714</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1">
+        <v>27.099354647887857</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="str">
-        <v>6/01/2025</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>TEST000002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Test Merchant 2</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-      <c r="E3">
-        <v>600</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>400</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-      <c r="J3">
-        <v>200</v>
-      </c>
-      <c r="K3" t="str">
-        <v>6/01/2025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TEST000003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Test Merchant 3</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>30000</v>
-      </c>
-      <c r="E4">
-        <v>900</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-      <c r="G4">
-        <v>600</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>300</v>
-      </c>
-      <c r="K4" t="str">
-        <v>6/01/2025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>TEST000004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Test Merchant 4</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>40000</v>
-      </c>
-      <c r="E5">
-        <v>1200</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-      <c r="G5">
-        <v>800</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>400</v>
-      </c>
-      <c r="K5" t="str">
-        <v>6/01/2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>TEST000005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Test Merchant 5</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6">
-        <v>50000</v>
-      </c>
-      <c r="E6">
-        <v>1500</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-      <c r="K6" t="str">
-        <v>6/01/2025</v>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>431</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1433.4800884066349</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35.83700221016587</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.167400442033174</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28.669601768132697</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14.334800884066349</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>